--- a/DataSheet/FOS8.xlsx
+++ b/DataSheet/FOS8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B9FF81-6DB0-43ED-836E-409802E06986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AD001D-59D7-4D68-819E-2DA17B404BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="177">
   <si>
     <t>Si_No</t>
   </si>
@@ -157,9 +157,6 @@
     <t>CLICK</t>
   </si>
   <si>
-    <t>QUIT</t>
-  </si>
-  <si>
     <t>Wait 2 second</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>Click on Application ID Tab</t>
   </si>
   <si>
-    <t>Quit Application</t>
-  </si>
-  <si>
     <t>TC_01_02</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
     <t>Login Page</t>
   </si>
   <si>
-    <t>TC_01_04_20</t>
-  </si>
-  <si>
     <t>Wait 6 second</t>
   </si>
   <si>
@@ -247,9 +238,6 @@
     <t>Driving License</t>
   </si>
   <si>
-    <t>WAIT(4000)</t>
-  </si>
-  <si>
     <t>CoordinateScrollforPanForm60</t>
   </si>
   <si>
@@ -265,9 +253,6 @@
     <t>ApplicationID</t>
   </si>
   <si>
-    <t>WAIT(3000)</t>
-  </si>
-  <si>
     <t>KYC</t>
   </si>
   <si>
@@ -341,6 +326,237 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>WAIT(6000)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>//*[@bounds='[60,605][1020,1265]']</t>
+  </si>
+  <si>
+    <t>TC_01_03</t>
+  </si>
+  <si>
+    <t>Application Page</t>
+  </si>
+  <si>
+    <t>TC_01_03_01</t>
+  </si>
+  <si>
+    <t>Verify Specific Lead are display</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>TC_01_03_02</t>
+  </si>
+  <si>
+    <t>Click on Lead</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>TC_01_03_03</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>(//android.view.View[contains(@content-desc,'Applicant')])[2]</t>
+  </si>
+  <si>
+    <t>TC_01_03_04</t>
+  </si>
+  <si>
+    <t>Verify 'APPLICANT' tab are clicked</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>TC_01_03_05</t>
+  </si>
+  <si>
+    <t>Click on 'Applicant' tab</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Applicant Consent</t>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,'Consent')]</t>
+  </si>
+  <si>
+    <t>Applicant Consent Page</t>
+  </si>
+  <si>
+    <t>TC_01_04_01</t>
+  </si>
+  <si>
+    <t>Verify "CONSENT" tab are clickable</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>TC_01_04_02</t>
+  </si>
+  <si>
+    <t>Click on "CONSENT" Tab</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="Primary Details"])[1]</t>
+  </si>
+  <si>
+    <t>TC_01_04_03</t>
+  </si>
+  <si>
+    <t>Verify "Primary Details" are Displayed</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>TC_01_04_04</t>
+  </si>
+  <si>
+    <t>Close "Primary Details" Section</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="Mode Of Consent"])[1]</t>
+  </si>
+  <si>
+    <t>TC_01_04_05</t>
+  </si>
+  <si>
+    <t>Open "Mode Of Consent" Section</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Form"]/android.widget.RadioButton</t>
+  </si>
+  <si>
+    <t>TC_01_04_06</t>
+  </si>
+  <si>
+    <t>Verify "mode of consent" type</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>TC_01_04_07</t>
+  </si>
+  <si>
+    <t>Select "Mode Of Consent" is 'Form' based</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="Capture Image"]</t>
+  </si>
+  <si>
+    <t>ScrollUpDownElementUnTillVisiable</t>
+  </si>
+  <si>
+    <t>TC_01_04_08</t>
+  </si>
+  <si>
+    <t>ScrollDown Page</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>TC_01_04_09</t>
+  </si>
+  <si>
+    <t>Verify "Capture Image" button is display and clickable</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>TC_01_04_10</t>
+  </si>
+  <si>
+    <t>Clcik on "Capture Image" Button</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='Add Image']</t>
+  </si>
+  <si>
+    <t>TC_01_04_11</t>
+  </si>
+  <si>
+    <t>Click on "Add Image" Button</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc='Save Document']</t>
+  </si>
+  <si>
+    <t>TC_01_04_12</t>
+  </si>
+  <si>
+    <t>Verify "Save Document" button is display and clickable</t>
   </si>
 </sst>
 </file>
@@ -381,15 +597,33 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -397,11 +631,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF0F0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -410,6 +653,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="74" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,8 +1049,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -816,25 +1068,24 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <f>A2+1</f>
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -846,31 +1097,30 @@
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
         <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <f t="shared" ref="A4:A15" si="0">A3+1</f>
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -882,31 +1132,30 @@
         <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -921,37 +1170,36 @@
         <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
         <v>27</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -972,13 +1220,13 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -988,9 +1236,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1011,25 +1258,24 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1050,25 +1296,24 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1089,25 +1334,24 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1126,31 +1370,30 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1165,37 +1408,36 @@
         <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
       <c r="K11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
         <v>62</v>
       </c>
-      <c r="L11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" t="s">
-        <v>64</v>
-      </c>
       <c r="N11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1216,31 +1458,30 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
         <v>62</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>52</v>
       </c>
-      <c r="M12" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12" t="s">
-        <v>54</v>
-      </c>
       <c r="O12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1252,91 +1493,752 @@
         <v>17</v>
       </c>
       <c r="K13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
         <v>62</v>
       </c>
-      <c r="L13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" t="s">
-        <v>64</v>
-      </c>
       <c r="N13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" t="s">
+        <v>116</v>
+      </c>
+      <c r="N17" t="s">
+        <v>126</v>
+      </c>
+      <c r="O17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" t="s">
+        <v>116</v>
+      </c>
+      <c r="N18" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" t="s">
         <v>61</v>
       </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" t="s">
-        <v>51</v>
+      <c r="M19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N20" t="s">
+        <v>138</v>
+      </c>
+      <c r="O20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" t="s">
+        <v>134</v>
+      </c>
+      <c r="N21" t="s">
+        <v>142</v>
+      </c>
+      <c r="O21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" t="s">
+        <v>134</v>
+      </c>
+      <c r="N22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" t="s">
+        <v>134</v>
+      </c>
+      <c r="N23" t="s">
+        <v>149</v>
+      </c>
+      <c r="O23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" t="s">
+        <v>134</v>
+      </c>
+      <c r="N24" t="s">
+        <v>153</v>
+      </c>
+      <c r="O24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" t="s">
+        <v>134</v>
+      </c>
+      <c r="N25" t="s">
+        <v>156</v>
+      </c>
+      <c r="O25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" t="s">
+        <v>134</v>
+      </c>
+      <c r="N26" t="s">
+        <v>161</v>
+      </c>
+      <c r="O26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" t="s">
+        <v>134</v>
+      </c>
+      <c r="N27" t="s">
+        <v>164</v>
+      </c>
+      <c r="O27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" t="s">
+        <v>134</v>
+      </c>
+      <c r="N28" t="s">
+        <v>167</v>
+      </c>
+      <c r="O28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" t="s">
+        <v>134</v>
+      </c>
+      <c r="N29" t="s">
+        <v>171</v>
+      </c>
+      <c r="O29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" t="s">
+        <v>134</v>
+      </c>
+      <c r="N30" t="s">
+        <v>175</v>
+      </c>
+      <c r="O30" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1349,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,55 +2307,55 @@
         <v>38</v>
       </c>
       <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>75</v>
       </c>
-      <c r="M1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" t="s">
         <v>80</v>
       </c>
-      <c r="O1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" t="s">
-        <v>85</v>
-      </c>
       <c r="Q1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T1" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" t="s">
         <v>88</v>
       </c>
-      <c r="S1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" t="s">
         <v>91</v>
       </c>
-      <c r="U1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z1" t="s">
         <v>96</v>
-      </c>
-      <c r="X1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -1473,49 +2375,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" t="s">
         <v>87</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="S2" t="s">
-        <v>90</v>
-      </c>
-      <c r="T2" t="s">
-        <v>92</v>
       </c>
       <c r="U2">
         <v>38523563809</v>
@@ -1527,13 +2429,13 @@
         <v>2</v>
       </c>
       <c r="X2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Y2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -1541,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1565,37 +2467,37 @@
         <v>6</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="S3" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" t="s">
         <v>87</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="S3" t="s">
-        <v>90</v>
-      </c>
-      <c r="T3" t="s">
-        <v>92</v>
       </c>
       <c r="U3">
         <v>38523563809</v>
@@ -1607,13 +2509,13 @@
         <v>2</v>
       </c>
       <c r="X3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Y3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
